--- a/Load_Testing_Laptop.xlsx
+++ b/Load_Testing_Laptop.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shemalshah/Desktop/HR/SDC/Reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB1CC55-0162-DA47-91E6-87FDA77ED531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C70B9B-932D-9844-80C5-E72C988AAF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14620" xr2:uid="{F49B2943-D9C0-6644-85E1-0A76B871944B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="1" xr2:uid="{F49B2943-D9C0-6644-85E1-0A76B871944B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Laptop" sheetId="1" r:id="rId1"/>
+    <sheet name="EC2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>Routes</t>
   </si>
@@ -117,6 +119,55 @@
     { duration: '60s', target: 200 },
     { duration: '60s', target: 100 },
   ]</t>
+  </si>
+  <si>
+    <t>stages: [
+    { duration: '60s', target: 200 },
+    { duration: '60s', target: 400 },
+    { duration: '60s', target: 200 },
+  ]</t>
+  </si>
+  <si>
+    <t>Ran the test with k6</t>
+  </si>
+  <si>
+    <t>500 clients over 1 min</t>
+  </si>
+  <si>
+    <t>350 clients over 1 min</t>
+  </si>
+  <si>
+    <t>Ran with Loader io</t>
+  </si>
+  <si>
+    <t>0 - 1000 clients over 1 min</t>
+  </si>
+  <si>
+    <t>1000 clients over 1 min</t>
+  </si>
+  <si>
+    <t>450 clients over 1 min</t>
+  </si>
+  <si>
+    <t>With Load Balancer</t>
+  </si>
+  <si>
+    <t>With 2 load balancers</t>
+  </si>
+  <si>
+    <t>900 clients over 1 min</t>
+  </si>
+  <si>
+    <t>1200 clients over 1 min</t>
+  </si>
+  <si>
+    <t>750 clients over 1 min</t>
+  </si>
+  <si>
+    <t>850 clients over 1 min</t>
+  </si>
+  <si>
+    <t>1750 clients over 1 min</t>
   </si>
 </sst>
 </file>
@@ -160,12 +211,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBBD2DB-6DAC-0940-89E4-41E2B82657C9}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,4 +744,303 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626F05AF-2C2F-9246-8D73-2C7108C49AE5}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>218</v>
+      </c>
+      <c r="D2">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f>21000/60</f>
+        <v>350</v>
+      </c>
+      <c r="D3">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <f>27331/60</f>
+        <v>455.51666666666665</v>
+      </c>
+      <c r="D4">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f>17021/60</f>
+        <v>283.68333333333334</v>
+      </c>
+      <c r="D5">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f>28385/60</f>
+        <v>473.08333333333331</v>
+      </c>
+      <c r="D6">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f>27000/60</f>
+        <v>450</v>
+      </c>
+      <c r="D7">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <f>21000/60</f>
+        <v>350</v>
+      </c>
+      <c r="D8">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>66</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>900</v>
+      </c>
+      <c r="D13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1047</v>
+      </c>
+      <c r="D14">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>750</v>
+      </c>
+      <c r="D15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>850</v>
+      </c>
+      <c r="D16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>158</v>
+      </c>
+      <c r="E17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f>52878/60</f>
+        <v>881.3</v>
+      </c>
+      <c r="D18">
+        <v>1827</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EA3755-2837-C042-BD29-B012C3EDE0AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>